--- a/medicine/Psychotrope/Deilephila/Deilephila.xlsx
+++ b/medicine/Psychotrope/Deilephila/Deilephila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deilephila est un genre de lépidoptères (papillons) de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Macroglossini.  
 </t>
@@ -511,22 +523,92 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Deilephila a été décrit par l'entomologiste allemand Jakob Heinrich Laspeyres en 1809[1].
-L'espèce type pour le genre est Deilephila elpenor (Linnaeus, 1758)
-Synonymie
-Eumorpha Hübner, 1806 [2]
-Elpenor Oken, 1815[3]
-Choerocampa Duponchel, 1835[4]
-Metopsilus Duncan, 1836[5]
-Elpenor Agassiz, 1846[6]
-Dilophila Agassiz, 1846[7]
-Cinogon Butler, 1881[7]
-Dilephila Druce, 1881[8]
-Dilephila Kuznetsova, 1906
-Taxinomie
-Liste des espèces
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Deilephila a été décrit par l'entomologiste allemand Jakob Heinrich Laspeyres en 1809.
+L'espèce type pour le genre est Deilephila elpenor (Linnaeus, 1758)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Deilephila</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deilephila</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eumorpha Hübner, 1806 
+Elpenor Oken, 1815
+Choerocampa Duponchel, 1835
+Metopsilus Duncan, 1836
+Elpenor Agassiz, 1846
+Dilophila Agassiz, 1846
+Cinogon Butler, 1881
+Dilephila Druce, 1881
+Dilephila Kuznetsova, 1906</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Deilephila</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deilephila</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces
 Deilephila askoldensis (Oberthür, 1879)
 Deilephila elpenor (Linnaeus, 1758) — Grand sphinx de la vigne.
 Deilephila porcellus (Linnaeus, 1758) — Petit sphinx de la vigne ou Petit pourceau.
